--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.Net Trainings\Batch46\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.Net Trainings\gitbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A893EC-2C1E-443B-9232-F1A8FC9FE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271C7DD-5C0C-4F81-B1C8-1A500023C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sekhar</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>jun17,</t>
+  </si>
+  <si>
+    <t>jun21,</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +540,9 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.Net Trainings\gitbatch46\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\Repos\dotnetbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271C7DD-5C0C-4F81-B1C8-1A500023C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37595559-FF93-40F4-82C5-B4882AD3CD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sekhar</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>jun21,</t>
+  </si>
+  <si>
+    <t>.Net Webservices and MVC</t>
+  </si>
+  <si>
+    <t>jun22,</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,9 +568,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
@@ -582,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
@@ -592,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
@@ -602,19 +610,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
@@ -716,16 +727,22 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\Repos\dotnetbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37595559-FF93-40F4-82C5-B4882AD3CD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0AA10-4B8F-44DE-93BB-3521C6362E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Sekhar</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>jun22,</t>
+  </si>
+  <si>
+    <t>jun23,</t>
+  </si>
+  <si>
+    <t>jun24,</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +598,9 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,7 +630,9 @@
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\Repos\dotnetbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0AA10-4B8F-44DE-93BB-3521C6362E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C21A7-DFA6-405F-94BB-62B72BEE157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10176" yWindow="948" windowWidth="12612" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Sekhar</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>jun24,</t>
+  </si>
+  <si>
+    <t>Git hub</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,8 +639,15 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\Repos\dotnetbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C21A7-DFA6-405F-94BB-62B72BEE157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BBC45-B498-4AA2-AB02-CAE783D062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10176" yWindow="948" windowWidth="12612" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Sekhar</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Git hub</t>
+  </si>
+  <si>
+    <t>Asp.net Core webapi</t>
+  </si>
+  <si>
+    <t>jun27,</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,9 +657,15 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\Repos\dotnetbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BBC45-B498-4AA2-AB02-CAE783D062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE7AFF-5D60-4D57-9353-A5D76ADE5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Sekhar</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>jun27,</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>june28,</t>
+  </si>
+  <si>
+    <t>june29,</t>
   </si>
 </sst>
 </file>
@@ -489,7 +501,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,15 +681,27 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">

--- a/Daily Class Track.xlsx
+++ b/Daily Class Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\Repos\dotnetbatch46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBE7AFF-5D60-4D57-9353-A5D76ADE5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043EF36-EE22-42EF-BD6E-58607AFAE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sekhar</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Windows Applications</t>
   </si>
   <si>
-    <t>Asp.net Core</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blazor.net </t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>jun22,</t>
   </si>
   <si>
-    <t>jun23,</t>
-  </si>
-  <si>
     <t>jun24,</t>
   </si>
   <si>
@@ -115,6 +109,15 @@
   </si>
   <si>
     <t>june29,</t>
+  </si>
+  <si>
+    <t>Asp.net Core web application</t>
+  </si>
+  <si>
+    <t>jun23,jul04,</t>
+  </si>
+  <si>
+    <t>LINQ in C#</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +528,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5"/>
@@ -550,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -559,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -574,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -586,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -595,10 +598,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -607,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
@@ -617,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -629,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
@@ -639,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
@@ -649,10 +652,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -661,10 +664,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -673,10 +676,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -685,10 +688,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -697,16 +700,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
     </row>
